--- a/bots/crawl_ch/output/clothes_2022-07-13.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-13.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-13 07:03:50</t>
+          <t>2022-07-13 20:57:46</t>
         </is>
       </c>
     </row>
